--- a/docs/reverberation_datasets.xlsx
+++ b/docs/reverberation_datasets.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">studio_a</t>
   </si>
   <si>
-    <t xml:space="preserve">[1]Gavin Kearney, ‘BBC Maida Vale Impulse Response Dataset’, Acoustics, vol. 4, no. 3. Zenodo, pp. 783–799, Oct. 19, 2023. doi: 10.5281/zenodo.10020866.</t>
+    <t xml:space="preserve">Gavin Kearney, ‘BBC Maida Vale Impulse Response Dataset’, Acoustics, vol. 4, no. 3. Zenodo, pp. 783–799, Oct. 19, 2023. doi: 10.5281/zenodo.10020866.</t>
   </si>
   <si>
     <t xml:space="preserve">Creative Commons Attribution 3.0 Unported</t>
@@ -128,6 +128,24 @@
   </si>
   <si>
     <t xml:space="preserve">Thomas McKenzie, Leo McCormackand Christoph Hold, ‘Dataset of Spatial Room Impulse Responses in a Variable Acoustics Room for Six Degrees-of-Freedom Rendering and Analysis’. Zenodo, Mar. 24, 2022. doi: 10.5281/zenodo.6382405.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seminar_room_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F. Miotello, ‘HOMULA-RIR: A Room Impulse Response Dataset for Teleconferencing and Spatial Audio Applications Acquired Through Higher-Order Microphones and Uniform Linear Microphone Arrays’. Zenodo, Jan. 10, 2024. doi: 10.5281/zenodo.10479726.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lecture_room_a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Eaton, Nikolay D. Gaubitch, Alastair H. Mooreand Patrick A. Naylor, ‘Data Corpus for the IEEE-AASP Challenge on the Acoustic Characterization of Environments (ACE)’. Zenodo, Mar. 02, 2015. doi: 10.5281/zenodo.6257551.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studio_b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. Chesworth, A. Bastineand T. Abhayapala, ‘RSoANU: RIR Dataset’. Zenodo, 2024. doi: 10.5281/zenodo.10720345. </t>
   </si>
 </sst>
 </file>
@@ -431,7 +449,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -518,7 +536,7 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -637,11 +655,51 @@
         <v>9</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="Real World Computing Partnership (2007): RWCP Real Environment Speech and Acoustic Database (RWCP-SSD). Speech Resources Consortium, National Institute of Informatics. (dataset). https://doi.org/10.32130/src.RWCP-SSD"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
